--- a/ResultadoEleicoesDistritos/SETÚBAL_ALMADA.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_ALMADA.xlsx
@@ -597,64 +597,64 @@
         <v>45297</v>
       </c>
       <c r="H2" t="n">
-        <v>1709</v>
+        <v>1678</v>
       </c>
       <c r="I2" t="n">
-        <v>4649</v>
+        <v>4430</v>
       </c>
       <c r="J2" t="n">
-        <v>18832</v>
+        <v>18686</v>
       </c>
       <c r="K2" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" t="n">
-        <v>5165</v>
+        <v>5171</v>
       </c>
       <c r="M2" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N2" t="n">
-        <v>3248</v>
+        <v>3217</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R2" t="n">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="S2" t="n">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="T2" t="n">
-        <v>3304</v>
+        <v>3312</v>
       </c>
       <c r="U2" t="n">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="V2" t="n">
-        <v>28447</v>
+        <v>28971</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>29109</v>
+        <v>28970</v>
       </c>
       <c r="Y2" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AA2" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
